--- a/2-from-excel-tables-to-sql-select/sql-tables-example.xlsx
+++ b/2-from-excel-tables-to-sql-select/sql-tables-example.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Webinar - SQL for Excel Users\Resources - SQL for Excel Users\2-from-excel-tables-to-sql-select\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\sql-for-excel-users\2-from-excel-tables-to-sql-select\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E72A346-CB37-457B-AB30-8996978ED055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22989" windowHeight="9146"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="before" sheetId="1" r:id="rId1"/>
-    <sheet name="after" sheetId="2" r:id="rId2"/>
+    <sheet name="before" sheetId="12" r:id="rId1"/>
+    <sheet name="after" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,85 +36,85 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
+    <t>(see column E)</t>
+  </si>
+  <si>
+    <t>Calculated columns are based directly on other columns</t>
+  </si>
+  <si>
+    <t>Can refer to columns as a whole</t>
+  </si>
+  <si>
+    <t>Table is renamed to office_signups</t>
+  </si>
+  <si>
+    <t>ASSISTANT TO THE REGIONAL MANAGER</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>CO-MANAGER</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>SENIOR ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>FOREMAN</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>SALESPERSON</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>dept_times_two</t>
+  </si>
+  <si>
+    <t>is_signed_up</t>
+  </si>
+  <si>
+    <t>department_no</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>department_no</t>
-  </si>
-  <si>
-    <t>is_signed_up</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>SENIOR ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>Daryl</t>
-  </si>
-  <si>
-    <t>FOREMAN</t>
-  </si>
-  <si>
-    <t>Dwight</t>
-  </si>
-  <si>
-    <t>ASSISTANT TO THE REGIONAL MANAGER</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS REP</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>CO-MANAGER</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>SALESPERSON</t>
-  </si>
-  <si>
-    <t>Table is renamed to office_signups</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
     <t>CHIEF FINANCIAL OFFICER</t>
-  </si>
-  <si>
-    <t>dept_times_two</t>
-  </si>
-  <si>
-    <t>Can refer to columns as a whole</t>
-  </si>
-  <si>
-    <t>Calculated columns are based directly on other columns</t>
-  </si>
-  <si>
-    <t>(see column E)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,12 +153,158 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+    </tableStyle>
+    <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="2"/>
+      <tableStyleElement type="pageFieldValues" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFD23338"/>
+      <color rgb="FFFB3338"/>
+      <color rgb="FF3D3935"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,22 +318,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5442</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>325482</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125559</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4587240" cy="3051639"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="No alternative text description for this image"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="No alternative text description for this image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4B625A-147D-41C8-AB5C-CAFA74E992D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -198,8 +354,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5497285" y="0"/>
-          <a:ext cx="4892040" cy="3086473"/>
+          <a:off x="5308962" y="0"/>
+          <a:ext cx="4587240" cy="3051639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -217,24 +373,25 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="office_signups" displayName="office_signups" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB362DE9-847A-4FAA-AAC0-8E7820B5E319}" name="office_signups" displayName="office_signups" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{8809C4D0-CD7D-4B40-A126-643BA294C390}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="title"/>
-    <tableColumn id="3" name="department_no"/>
-    <tableColumn id="4" name="is_signed_up"/>
-    <tableColumn id="6" name="dept_times_two" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{12D63D9D-244E-4B35-9031-E43D123717F2}" name="name"/>
+    <tableColumn id="2" xr3:uid="{AE3EE70F-F033-4A88-9544-9062AD13CD02}" name="title"/>
+    <tableColumn id="3" xr3:uid="{7258CF16-C27F-4E7D-AE85-69CED13BAB89}" name="department_no"/>
+    <tableColumn id="4" xr3:uid="{8CC7DB5F-2433-40CA-8A18-F2F19B9F0329}" name="is_signed_up"/>
+    <tableColumn id="6" xr3:uid="{E836953F-AEF4-4369-A791-7E2AC25A7869}" name="dept_times_two" dataDxfId="0">
       <calculatedColumnFormula>office_signups[[#This Row],[department_no]]*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -245,7 +402,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Stringfest">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,22 +416,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D93644"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="D97179"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2B3B9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="403C38"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="D8D8D8"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -318,6 +475,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,39 +695,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>22</v>
@@ -545,12 +738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -559,12 +752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>44</v>
@@ -573,12 +766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -587,12 +780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -601,12 +794,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -615,12 +808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -629,12 +822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -650,42 +843,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.23046875" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>22</v>
@@ -698,12 +894,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -716,12 +912,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>44</v>
@@ -734,12 +930,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -752,12 +948,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -770,12 +966,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -788,12 +984,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -806,26 +1002,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <f>SUM(office_signups[department_no])</f>
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
